--- a/Barangay_Centers_Table.xlsx
+++ b/Barangay_Centers_Table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Arcane Archives\UP MS Math\SEM2\Math281\COVID RESEARCH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D4BA479-6C92-4C29-A709-0B5C6404F5FB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28503520-DEF1-4C81-9DA1-3F6E249AA0BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2496" yWindow="2838" windowWidth="14400" windowHeight="7824" xr2:uid="{8B541DC0-3824-4D31-8535-439D66541FB4}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10992" xr2:uid="{8B541DC0-3824-4D31-8535-439D66541FB4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -171,7 +171,7 @@
     <t>latitude</t>
   </si>
   <si>
-    <t>longtitude</t>
+    <t>longitude</t>
   </si>
   <si>
     <t>Barangay_name</t>
@@ -562,8 +562,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44791681-6901-4980-B952-0DB4021A520D}">
   <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -592,7 +592,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="3">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="B2" s="4">
         <v>2444</v>
@@ -660,7 +660,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="3">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B6" s="4">
         <v>5909</v>
@@ -677,7 +677,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B7" s="4">
         <v>2492</v>
@@ -694,7 +694,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="3">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B8" s="4">
         <v>2257</v>
@@ -711,7 +711,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="3">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="B9" s="4">
         <v>5255</v>
@@ -728,7 +728,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="3">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10" s="4">
         <v>2545</v>
@@ -745,7 +745,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="3">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B11" s="4">
         <v>4071</v>
@@ -779,7 +779,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="3">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B13" s="2">
         <v>874</v>
@@ -796,7 +796,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B14" s="4">
         <v>3755</v>
@@ -813,7 +813,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B15" s="4">
         <v>1820</v>
@@ -830,7 +830,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B16" s="4">
         <v>1106</v>
@@ -881,7 +881,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="3">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B19" s="4">
         <v>5195</v>
@@ -898,7 +898,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="3">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B20" s="4">
         <v>4737</v>
@@ -915,7 +915,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="3">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="B21" s="4">
         <v>5052</v>
@@ -932,7 +932,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="3">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="B22" s="4">
         <v>4423</v>
@@ -949,7 +949,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="3">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="B23" s="4">
         <v>4123</v>
@@ -966,7 +966,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="3">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="B24" s="4">
         <v>1775</v>
@@ -983,7 +983,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="3">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B25" s="4">
         <v>3004</v>
@@ -1017,7 +1017,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="3">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B27" s="4">
         <v>3730</v>
@@ -1034,7 +1034,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="3">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B28" s="4">
         <v>1883</v>
@@ -1051,7 +1051,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B29" s="4">
         <v>1739</v>
@@ -1068,7 +1068,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="3">
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="B30" s="4">
         <v>3785</v>
@@ -1119,7 +1119,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="3">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B33" s="4">
         <v>2873</v>
@@ -1136,7 +1136,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B34" s="4">
         <v>3839</v>
@@ -1153,7 +1153,7 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B35" s="4">
         <v>3635</v>
@@ -1170,7 +1170,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="3">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B36" s="4">
         <v>3391</v>
@@ -1187,7 +1187,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="3">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B37" s="4">
         <v>2280</v>
@@ -1204,7 +1204,7 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="3">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B38" s="4">
         <v>1269</v>
@@ -1255,7 +1255,7 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B41" s="4">
         <v>1501</v>
@@ -1272,7 +1272,7 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B42" s="4">
         <v>2111</v>
@@ -1289,7 +1289,7 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B43" s="4">
         <v>3432</v>
